--- a/medicine/Enfance/Objectif___Nulle_part/Objectif___Nulle_part.xlsx
+++ b/medicine/Enfance/Objectif___Nulle_part/Objectif___Nulle_part.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Objectif : Nulle part est le huitième roman de la série Les Évadés du temps écrite par Philippe Ébly. Ce roman est paru pour la première fois en 1986 chez Hachette dans la collection Bibliothèque verte. 
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Kouroun et ses trois compagnons sont avec Jean-Marc, un garçon paumé qu'ils ont rencontré la veille au bord d'une route. Une garçon qui a perdu la mémoire, qui part à la recherche de son passé, et qui va les entraîner dans une prodigieuse aventure.
 </t>
@@ -543,7 +557,9 @@
           <t>Les différentes éditions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1986 : Hachette, coll. : Bibliothèque verte, cartonné. Illustrations de Víctor de la Fuente. 154 p.  (ISBN 2-01-011643-7)</t>
         </is>
